--- a/biology/Botanique/Taphrinomycotina/Taphrinomycotina.xlsx
+++ b/biology/Botanique/Taphrinomycotina/Taphrinomycotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Taphrinomycotina, également nommés archiascomycètes[réf. nécessaire], constituent une sous-division des Ascomycota.
 </t>
@@ -511,16 +523,18 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De récentes études de phylogénie moléculaire suggèrent que ce groupe est monophylétique et se situe à la base de la division des Ascomycota[2],[3].
-Il s'agit d'un groupe d'ascomycètes primitifs, constitué de quatre classes[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De récentes études de phylogénie moléculaire suggèrent que ce groupe est monophylétique et se situe à la base de la division des Ascomycota,.
+Il s'agit d'un groupe d'ascomycètes primitifs, constitué de quatre classes :
 Les Schizosaccharomycetes sont des levures qui se reproduisent par fission alors que la plupart des autres levures (essentiellement dans la sous-division des Saccharomycotina) se reproduisent par bourgeonnement.
 Les Pneumocystidomycetes sont des parasites de mammifères dont on ne connait qu'un seul genre : Pneumocystis.
 Les Neolectomycetes sont les seuls à former des structures reproductrices pluricellulaires. La classe ne comprend qu'un seul genre : Neolecta.
 Les Taphrinomycetes sont des parasites de plantes dimorphiques, ils présentent un stade levure non parasite et un stade filamenteux (hyphal) dans les plantes infectées.
 Les Archaeorhizomycetes vivent dans le sol à proximité des racines mais ne forment pas de mycorhizes.
-Le genre Saitoella n'était rattaché à aucune de ces classes en 2007[4], en 2014 il est considéré comme pouvant être inclus dans les Taphrinomycetes[5],[6].
+Le genre Saitoella n'était rattaché à aucune de ces classes en 2007, en 2014 il est considéré comme pouvant être inclus dans les Taphrinomycetes,.
 </t>
         </is>
       </c>
